--- a/ApplicationProfiles/Grid_Modelling_Appendix_3_LTDS_Profiles_in_RDFS/Comparisons/Comparison_v1_vs_v1-0-1/SCdiff.xlsx
+++ b/ApplicationProfiles/Grid_Modelling_Appendix_3_LTDS_Profiles_in_RDFS/Comparisons/Comparison_v1_vs_v1-0-1/SCdiff.xlsx
@@ -9,13 +9,13 @@
     <sheet name="RDFS comparison results" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">'RDFS comparison results'!$A$1:$CW$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">'RDFS comparison results'!$A$1:$DO$120</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="120">
   <si>
     <t>Item</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Value Model A: LTDS_Merged_SC_RDFSv2020.rdf</t>
   </si>
   <si>
-    <t>Value Model B: LTDS_Merged_SC_RDFSv2020_v1-0-1.rdf</t>
+    <t>Value Model B: LTDS_Merged_SC_RDFSv2020_v1-0-1n2.rdf</t>
   </si>
   <si>
     <t>ACLineSegment</t>
@@ -56,6 +56,42 @@
     <t>http://ofgem.gov.uk/ns/CIM/LTDS/DeviationSC#Package_DocLTDSdeviationCGMESShortCircuitProfile</t>
   </si>
   <si>
+    <t>Breaker</t>
+  </si>
+  <si>
+    <t>cim:Class</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New class: </t>
+  </si>
+  <si>
+    <t>rdfs:comment</t>
+  </si>
+  <si>
+    <t>A mechanical switching device capable of making, carrying, and breaking currents under normal circuit conditions and also making, carrying for a specified time, and breaking currents under specified abnormal circuit conditions e.g.  those of short circuit.</t>
+  </si>
+  <si>
+    <t>rdfs:label</t>
+  </si>
+  <si>
+    <t>"Breaker"@en</t>
+  </si>
+  <si>
+    <t>cims:stereotype</t>
+  </si>
+  <si>
+    <t>http://iec.ch/TC57/NonStandard/UML#concrete</t>
+  </si>
+  <si>
+    <t>rdfs:subClassOf</t>
+  </si>
+  <si>
+    <t>cim:ProtectedSwitch</t>
+  </si>
+  <si>
     <t>Conductance</t>
   </si>
   <si>
@@ -74,6 +110,18 @@
     <t>DateTime</t>
   </si>
   <si>
+    <t>DisconnectingCircuitBreaker</t>
+  </si>
+  <si>
+    <t>A circuit breaking device including disconnecting function, eliminating the need for separate disconnectors.</t>
+  </si>
+  <si>
+    <t>"DisconnectingCircuitBreaker"@en</t>
+  </si>
+  <si>
+    <t>cim:Breaker</t>
+  </si>
+  <si>
     <t>Float</t>
   </si>
   <si>
@@ -86,6 +134,15 @@
     <t>Length</t>
   </si>
   <si>
+    <t>LoadBreakSwitch</t>
+  </si>
+  <si>
+    <t>A mechanical switching device capable of making, carrying, and breaking currents under normal operating conditions.</t>
+  </si>
+  <si>
+    <t>"LoadBreakSwitch"@en</t>
+  </si>
+  <si>
     <t>Ontology</t>
   </si>
   <si>
@@ -95,7 +152,7 @@
     <t>"2023-06-26"^^xsd:date</t>
   </si>
   <si>
-    <t>"2024-07-18"^^xsd:date</t>
+    <t>"2024-07-25"^^xsd:date</t>
   </si>
   <si>
     <t>owl:versionInfo</t>
@@ -114,12 +171,6 @@
   </si>
   <si>
     <t>New property: null:Package_DocLTDSdeviationCGMESShortCircuitProfile in class: nullClassCategory</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>rdfs:comment</t>
   </si>
   <si>
     <t>This package contains two types of information:
@@ -129,9 +180,6 @@
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>rdfs:label</t>
-  </si>
-  <si>
     <t>"DocLTDSdeviationCGMESShortCircuitProfile"@en</t>
   </si>
   <si>
@@ -211,9 +259,6 @@
   </si>
   <si>
     <t>"automaticPositioning"@en</t>
-  </si>
-  <si>
-    <t>cims:stereotype</t>
   </si>
   <si>
     <t>enum</t>
@@ -417,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -429,7 +474,7 @@
     <col min="1" max="1" width="43.5625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.73828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="120.0" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="53.09765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="120.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -535,13 +580,13 @@
         <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -552,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>7</v>
@@ -560,63 +605,63 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>15</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>5</v>
@@ -630,7 +675,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>5</v>
@@ -644,13 +689,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>5</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>7</v>
@@ -658,7 +703,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>5</v>
@@ -672,13 +717,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>5</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>7</v>
@@ -686,13 +731,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>5</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>7</v>
@@ -700,13 +745,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>5</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>7</v>
@@ -714,13 +759,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>5</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>7</v>
@@ -728,13 +773,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>5</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>7</v>
@@ -742,13 +787,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>5</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>7</v>
@@ -756,27 +801,27 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>5</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>7</v>
@@ -784,539 +829,539 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>5</v>
@@ -1330,226 +1375,226 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="B66" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>8</v>
-      </c>
       <c r="D66" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="B67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="D67" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="B71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="D71" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="B75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="D75" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -1557,13 +1602,13 @@
         <v>92</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -1571,24 +1616,24 @@
         <v>92</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>5</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>7</v>
@@ -1596,13 +1641,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>5</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>7</v>
@@ -1610,72 +1655,72 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C85" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="B85" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>8</v>
-      </c>
       <c r="D85" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="B86" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="D86" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D87" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D89" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -1683,13 +1728,13 @@
         <v>99</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D90" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
@@ -1697,150 +1742,150 @@
         <v>99</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D91" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>5</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>7</v>
@@ -1848,20 +1893,272 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>5</v>
       </c>
       <c r="C102" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D103" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D115" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s" s="2">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CW102"/>
+  <autoFilter ref="A1:DO120"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -2211,13 +2508,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72FA49EB-2F94-4833-BEF7-71F7DE7FF983}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66F3FF55-B491-459D-8A42-D224B42DA3B4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7D5A8A5-D5BD-4AB7-B820-9D1AAC8FFFDD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B07674-2A80-4B93-A895-EB374D8323FE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EC68657-A2AA-4455-B821-04D57A2F393E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D7BF15A-770C-440E-9527-F4A255273E33}"/>
 </file>